--- a/design.xlsx
+++ b/design.xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91981\AppData\Local\Temp\scp42655\home\kj415j45\Site-Manager\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="16380" windowHeight="8190" tabRatio="985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="16380" windowHeight="8190" tabRatio="985" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="权限表" sheetId="1" r:id="rId1"/>
-    <sheet name="用户信息" sheetId="2" r:id="rId2"/>
-    <sheet name="首页" sheetId="3" r:id="rId3"/>
-    <sheet name="登录界面" sheetId="4" r:id="rId4"/>
-    <sheet name="用户界面" sheetId="5" r:id="rId5"/>
-    <sheet name="管理界面" sheetId="6" r:id="rId6"/>
-    <sheet name="数据库设计" sheetId="7" r:id="rId7"/>
+    <sheet name="横幅" sheetId="10" r:id="rId2"/>
+    <sheet name="用户信息" sheetId="2" r:id="rId3"/>
+    <sheet name="首页" sheetId="3" r:id="rId4"/>
+    <sheet name="登录界面" sheetId="4" r:id="rId5"/>
+    <sheet name="用户界面" sheetId="5" r:id="rId6"/>
+    <sheet name="活动信息总览界面" sheetId="8" r:id="rId7"/>
+    <sheet name="活动信息详细界面" sheetId="11" r:id="rId8"/>
+    <sheet name="管理界面" sheetId="6" r:id="rId9"/>
+    <sheet name="数据库设计" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -30,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="87">
   <si>
     <t>查看活动</t>
   </si>
@@ -248,9 +246,6 @@
     <t>site_describe</t>
   </si>
   <si>
-    <t>site_picture</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -283,26 +278,6 @@
     <t>文本</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>链接或</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>blob</t>
-    </r>
-  </si>
-  <si>
     <t>活动表</t>
   </si>
   <si>
@@ -347,20 +322,6 @@
     </r>
   </si>
   <si>
-    <t>用户申请表</t>
-  </si>
-  <si>
-    <t>活动申请表</t>
-  </si>
-  <si>
-    <t>users_request</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>activities_request</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>last_time</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -390,6 +351,70 @@
   </si>
   <si>
     <t>退出</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>场地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$site_head</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动名称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动简介</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动开始时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个条目的细节</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动名称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>完整简介</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -397,7 +422,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK SC Regular"/>
@@ -449,6 +474,22 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -476,7 +517,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -484,11 +525,106 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -501,25 +637,80 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -606,7 +797,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -648,7 +839,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -683,7 +874,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -978,12 +1169,255 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125"/>
+    <col min="5" max="5" width="15"/>
+    <col min="6" max="6" width="14.140625"/>
+    <col min="7" max="7" width="15"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="1025" width="11.42578125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="12.75">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="12.75">
+      <c r="A2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="12.75">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="12.75">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="12.75">
+      <c r="A6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="12.75">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="12.75">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="12.75">
+      <c r="A10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="12.75">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="12" customHeight="1">
+      <c r="A1" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="13"/>
+      <c r="H1" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+    </row>
+    <row r="2" spans="1:11" ht="12" customHeight="1">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="H1:K2"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -994,66 +1428,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12" customHeight="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="9"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:14" ht="12" customHeight="1">
-      <c r="A3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" ht="12" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="12" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="I1:J4"/>
+    <mergeCell ref="G1:H4"/>
     <mergeCell ref="E1:F4"/>
+    <mergeCell ref="C1:D4"/>
+    <mergeCell ref="A1:B4"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -1065,12 +1515,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I2"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1078,128 +1528,128 @@
     <col min="1" max="1025" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:9" ht="12" customHeight="1">
+      <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="9" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="9"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" ht="12" customHeight="1">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1220,7 +1670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -1234,30 +1684,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1">
       <c r="A3" s="6"/>
@@ -1269,10 +1719,10 @@
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1">
       <c r="A5" s="6"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1">
       <c r="D6" t="s">
@@ -1280,26 +1730,26 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1320,12 +1770,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B10"/>
+      <selection activeCell="C3" sqref="C3:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1334,133 +1784,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="9" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="9"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1482,11 +1932,502 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:9" ht="12" customHeight="1">
+      <c r="A3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:9" ht="12" customHeight="1">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="1:9" ht="12" customHeight="1">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" spans="1:9" ht="12" customHeight="1">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="1:9" ht="12" customHeight="1">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="J20" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G2"/>
+    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="A3:I13"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A20:B20"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="D4" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="30"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" s="23"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="24"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="31"/>
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="23"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="24"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="31"/>
+      <c r="H9" s="26"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" s="23"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="24"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="23"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="24"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="34"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="34"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="34"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="34"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="34"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="34"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="34"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="34"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="34"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="34"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="34"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="34"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="32"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="34"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="34"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="35"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B12:H26"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G2"/>
+    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -1496,157 +2437,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="9" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="9"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1669,271 +2610,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
-  <cols>
-    <col min="1" max="1" width="12.85546875"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125"/>
-    <col min="5" max="5" width="15"/>
-    <col min="6" max="6" width="14.140625"/>
-    <col min="7" max="7" width="15"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="1025" width="11.42578125"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="12.75">
-      <c r="A1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="12.75">
-      <c r="A2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="12.75">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="12.75">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="12.75">
-      <c r="A6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="12.75">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="12.75">
-      <c r="A9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="12.75">
-      <c r="A10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="12.75">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="12.75">
-      <c r="A14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="12.75">
-      <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="12.75">
-      <c r="A18" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="12.75">
-      <c r="A19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/design.xlsx
+++ b/design.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91981\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="16380" windowHeight="8190" tabRatio="985" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="16380" windowHeight="8190" tabRatio="985" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="权限表" sheetId="1" r:id="rId1"/>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="89">
   <si>
     <t>查看活动</t>
   </si>
@@ -415,6 +420,14 @@
   </si>
   <si>
     <t>完整简介</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用场地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -640,13 +653,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -657,40 +679,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -709,6 +710,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -797,7 +810,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -839,7 +852,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -874,7 +887,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1174,7 +1187,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1369,36 +1382,36 @@
   <sheetFormatPr defaultRowHeight="12"/>
   <sheetData>
     <row r="1" spans="1:11" ht="12" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="H1" s="19" t="s">
+      <c r="F1" s="14"/>
+      <c r="H1" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" ht="12" customHeight="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1417,7 +1430,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -1428,64 +1441,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11" t="s">
+      <c r="F1" s="17"/>
+      <c r="G1" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11" t="s">
+      <c r="H1" s="17"/>
+      <c r="I1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="11"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
     </row>
     <row r="3" spans="1:14" ht="12" customHeight="1">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" ht="12" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
@@ -1529,127 +1542,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="12" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="11" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="11"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" ht="12" customHeight="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="14" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1675,7 +1688,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1684,30 +1697,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1">
       <c r="A3" s="6"/>
@@ -1719,10 +1732,10 @@
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1">
       <c r="A5" s="6"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1">
       <c r="D6" t="s">
@@ -1730,26 +1743,26 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1784,133 +1797,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="11" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="11"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="14" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1943,191 +1956,191 @@
   <sheetFormatPr defaultRowHeight="12"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="11" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="11"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" ht="12" customHeight="1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="1:9" ht="12" customHeight="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9" ht="12" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9" ht="12" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:9" ht="12" customHeight="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="23"/>
+      <c r="C20" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21" t="s">
+      <c r="D20" s="23"/>
+      <c r="E20" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21" t="s">
+      <c r="F20" s="23"/>
+      <c r="G20" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21" t="s">
+      <c r="H20" s="23"/>
+      <c r="I20" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="J20" s="21"/>
+      <c r="J20" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2151,272 +2164,278 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="11" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="11"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="29" t="s">
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="30"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="B6" s="23"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="24"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:9">
       <c r="B7" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="27"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="B8" s="23"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="24"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:9">
       <c r="B9" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="B10" s="23"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="24"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="B11" s="23"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="B11" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="24"/>
+      <c r="F11" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="34"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="30"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="B13" s="32"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="34"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="34"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="30"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="B15" s="32"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="34"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="30"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="34"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="34"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="32"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="34"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="30"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="32"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="34"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="30"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="34"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="30"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="32"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="34"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="30"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="32"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="34"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="32"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="34"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="32"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="34"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="32"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="34"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="30"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="35"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="37"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B12:H26"/>
+  <mergeCells count="13">
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G2"/>
     <mergeCell ref="H1:I2"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B12:H26"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2427,7 +2446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -2437,157 +2456,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="11" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="11"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="14" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="17"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/design.xlsx
+++ b/design.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="16380" windowHeight="8190" tabRatio="985" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="16380" windowHeight="8190" tabRatio="985" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="权限表" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="数据库设计" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="95">
   <si>
     <t>查看活动</t>
   </si>
@@ -92,13 +93,7 @@
     <t>用户信息</t>
   </si>
   <si>
-    <t>活动</t>
-  </si>
-  <si>
     <t>内容</t>
-  </si>
-  <si>
-    <t>场地</t>
   </si>
   <si>
     <r>
@@ -145,12 +140,6 @@
   </si>
   <si>
     <t>注册</t>
-  </si>
-  <si>
-    <t>个人信息</t>
-  </si>
-  <si>
-    <t>申请新活动</t>
   </si>
   <si>
     <t>场地管理</t>
@@ -428,6 +417,46 @@
   </si>
   <si>
     <t>xxx</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>userinfo</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实姓名</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>telephone</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户表对应id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>定长12位</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>定长11位</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -674,7 +703,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -724,6 +752,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1184,15 +1213,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="12.85546875"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125"/>
@@ -1206,158 +1235,194 @@
   <sheetData>
     <row r="1" spans="1:9" ht="12.75">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="12.75">
       <c r="A2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="F2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" t="s">
         <v>37</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="12.75">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" t="s">
         <v>43</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="12.75">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.75">
       <c r="A6" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12.75">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="12.75">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="12.75">
       <c r="A10" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C10" t="s">
+      <c r="H10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" t="s">
         <v>65</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="12.75">
       <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
         <v>42</v>
       </c>
-      <c r="B11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
-      </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s">
-        <v>68</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1383,19 +1448,19 @@
   <sheetData>
     <row r="1" spans="1:11" ht="12" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D1" s="14"/>
       <c r="E1" s="14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F1" s="14"/>
       <c r="H1" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I1" s="16"/>
       <c r="J1" s="16"/>
@@ -1454,7 +1519,7 @@
       </c>
       <c r="F1" s="17"/>
       <c r="G1" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H1" s="17"/>
       <c r="I1" s="17" t="s">
@@ -1533,7 +1598,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1569,14 +1634,12 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:9" ht="12" customHeight="1">
+      <c r="A3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="19" t="s">
-        <v>20</v>
-      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
@@ -1584,9 +1647,9 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
+    <row r="4" spans="1:9" ht="12" customHeight="1">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
@@ -1595,11 +1658,9 @@
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="17"/>
+    <row r="5" spans="1:9" ht="12" customHeight="1">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
@@ -1609,69 +1670,77 @@
       <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="4">
+    <mergeCell ref="A3:I11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G2"/>
     <mergeCell ref="H1:I2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:I11"/>
-    <mergeCell ref="A5:B6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -1727,42 +1796,42 @@
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1">
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1">
       <c r="A5" s="6"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1">
       <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="D9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="D10" s="20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="D9" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="D10" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1788,7 +1857,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:I11"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1824,14 +1893,12 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="19" t="s">
-        <v>20</v>
-      </c>
+    <row r="3" spans="1:9" ht="12" customHeight="1">
+      <c r="A3" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
@@ -1839,9 +1906,9 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
+    <row r="4" spans="1:9" ht="12" customHeight="1">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
@@ -1850,11 +1917,9 @@
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="17"/>
+    <row r="5" spans="1:9" ht="12" customHeight="1">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
@@ -1863,9 +1928,9 @@
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
+    <row r="6" spans="1:9" ht="12" customHeight="1">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -1874,11 +1939,9 @@
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="17"/>
+    <row r="7" spans="1:9" ht="12" customHeight="1">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -1888,52 +1951,55 @@
       <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="4">
+    <mergeCell ref="A3:I11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G2"/>
     <mergeCell ref="H1:I2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:I11"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="A7:B8"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -1950,7 +2016,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1985,7 +2051,7 @@
     </row>
     <row r="3" spans="1:9" ht="12" customHeight="1">
       <c r="A3" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -2107,40 +2173,40 @@
       <c r="I13" s="19"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
+      <c r="A19" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23" t="s">
+      <c r="A20" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="J20" s="23"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2164,7 +2230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8:J8"/>
     </sheetView>
   </sheetViews>
@@ -2199,24 +2265,24 @@
       <c r="I2" s="17"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="D4" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
+      <c r="D4" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="B5" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
+      <c r="B5" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
+      <c r="F5" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="35"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:9">
       <c r="B6" s="12"/>
@@ -2228,17 +2294,17 @@
       <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="B7" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="B7" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27"/>
+      <c r="F7" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
     </row>
     <row r="8" spans="1:9">
       <c r="B8" s="12"/>
@@ -2250,17 +2316,17 @@
       <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="B9" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
+      <c r="B9" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27"/>
+      <c r="F9" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="12"/>
@@ -2272,154 +2338,154 @@
       <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="B11" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
+      <c r="B11" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="27"/>
+      <c r="F11" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="B12" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="30"/>
+      <c r="B12" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="30"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="30"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="29"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="30"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="30"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="29"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="30"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="29"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="30"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="29"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="30"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="29"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="30"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="29"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="30"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="29"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="30"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="29"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="30"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="29"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="29"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="30"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="29"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="33"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2447,7 +2513,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -2483,13 +2549,13 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="12" customHeight="1">
       <c r="A3" s="17" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
@@ -2498,7 +2564,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="12" customHeight="1">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="19"/>
@@ -2509,9 +2575,9 @@
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="12" customHeight="1">
       <c r="A5" s="17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="19"/>
@@ -2522,7 +2588,7 @@
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="12" customHeight="1">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="19"/>
@@ -2533,9 +2599,9 @@
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" ht="12" customHeight="1">
       <c r="A7" s="17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="19"/>
@@ -2546,7 +2612,7 @@
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="12" customHeight="1">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="19"/>
@@ -2557,9 +2623,9 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" ht="12" customHeight="1">
       <c r="A9" s="17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="19"/>
@@ -2570,7 +2636,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="12" customHeight="1">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="19"/>
@@ -2581,9 +2647,9 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" ht="12" customHeight="1">
       <c r="A11" s="17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="19"/>
@@ -2597,16 +2663,37 @@
     <row r="12" spans="1:9">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B13" s="17"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2615,11 +2702,11 @@
     <mergeCell ref="C1:G2"/>
     <mergeCell ref="H1:I2"/>
     <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:I11"/>
     <mergeCell ref="A5:B6"/>
     <mergeCell ref="A7:B8"/>
     <mergeCell ref="A9:B10"/>
     <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C3:I14"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
